--- a/biology/Zoologie/Gastrophryne_carolinensis/Gastrophryne_carolinensis.xlsx
+++ b/biology/Zoologie/Gastrophryne_carolinensis/Gastrophryne_carolinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gastrophryne carolinensis est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gastrophryne carolinensis est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Est des États-Unis. Elle se rencontre de l'Est du Texas jusqu'à la côte Est (Maryland, Virginie, Caroline du Nord, Caroline du Sud, Géorgie, Floride, Oklahoma, Arkansas, Tennessee, Missouri, Mississippi, Louisiane, Alabama et Texas)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Est des États-Unis. Elle se rencontre de l'Est du Texas jusqu'à la côte Est (Maryland, Virginie, Caroline du Nord, Caroline du Sud, Géorgie, Floride, Oklahoma, Arkansas, Tennessee, Missouri, Mississippi, Louisiane, Alabama et Texas),.
 Elle a été introduite aux Bahamas, aux îles Caïmans et dans le Nord-Ouest de Porto Rico.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gastrophryne carolinensis mesure environ 38 mm. Son dos varie entre le gris ou le beige au vert et présente souvent des taches blanches et noires. Son corps est ovoïde ; sa tête est étroite avec un museau pointu.
 </t>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de carolin[e] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence à la Caroline[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de carolin[e] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence à la Caroline.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1841 : Erpétologie générale ou Histoire naturelle complète des reptiles, vol. 8, p. 1-792 (texte intégral).
 Holbrook, 1836 : North American Herpetology. Dobson &amp; Son, Philadelphia, vol. 1 (texte intégral).</t>
